--- a/Data/Input/Daily/InputExcelDaily_16-02-2023.xlsx
+++ b/Data/Input/Daily/InputExcelDaily_16-02-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation\Data\Input\Daily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6468BF50-0D47-41C9-ACCD-E753BE305BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D1CF71-B1A8-47E9-B989-0E6A21D984F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1788" yWindow="1788" windowWidth="14208" windowHeight="6888" xr2:uid="{897F007F-5B54-4BD7-B68E-F3C1AE4DA8C9}"/>
+    <workbookView xWindow="2136" yWindow="2136" windowWidth="14208" windowHeight="6888" xr2:uid="{897F007F-5B54-4BD7-B68E-F3C1AE4DA8C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Delivery Order No.</t>
   </si>
@@ -75,6 +75,49 @@
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>DO230215001</t>
+  </si>
+  <si>
+    <t>JO230215001</t>
+  </si>
+  <si>
+    <t>VIGAHS MARINE TECHNOLOGIES PTE LTD</t>
+  </si>
+  <si>
+    <t>16/02/2023 08:00 ~ 16/02/2023 12:00</t>
+  </si>
+  <si>
+    <t>16/02/2023 12:00 ~ 16/02/2023 17:00</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Meixuan Tan
+16/02/2023 16:18</t>
+  </si>
+  <si>
+    <t>https://hhtc.insightservicing.sg/deliveryOrder/11078</t>
+  </si>
+  <si>
+    <t>DO230215048</t>
+  </si>
+  <si>
+    <t>JO230215052</t>
+  </si>
+  <si>
+    <t>KING PLASTIC PTE LTD</t>
+  </si>
+  <si>
+    <t>16/02/2023 12:00 ~ 16/02/2023 16:00</t>
+  </si>
+  <si>
+    <t>https://hhtc.insightservicing.sg/deliveryOrder/11077</t>
   </si>
 </sst>
 </file>
@@ -110,8 +153,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50158EB4-9FB1-4E4A-AAEE-6241E1B63F8D}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,6 +519,61 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
